--- a/data/recommendartion_data/finalIndonesia_data2.xlsx
+++ b/data/recommendartion_data/finalIndonesia_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODING\Project Capstone Bisa AI\data\recommendartion_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE96F07-7BB8-4670-A570-2659E4258B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932A0EF-4471-4962-BD5A-A7037297EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -736,9 +736,6 @@
     <t>164.0411, 2357.0216, 368.3591, 23.2857</t>
   </si>
   <si>
-    <t>Ayam Crock-Pot Asia Laura</t>
-  </si>
-  <si>
     <t>https://tse1.mm.bing.net/th/id/OIP.XJiyUzzsygFAvzbGeVOcRQHaE8?pid=ImgDet</t>
   </si>
   <si>
@@ -808,9 +805,6 @@
     <t>57.9703, 3123.1075, 550.0297, 80.4206</t>
   </si>
   <si>
-    <t>Kue Cokelat Chip Indonesia</t>
-  </si>
-  <si>
     <t>https://tse1.mm.bing.net/th/id/OIP.E0ztWzGCzzbl8NekXXwCVAHaE3?pid=ImgDet</t>
   </si>
   <si>
@@ -887,6 +881,12 @@
   </si>
   <si>
     <t>Gado Gado: Salad Indonesia</t>
+  </si>
+  <si>
+    <t>Ayam Crock-Pot "Asia" Laura</t>
+  </si>
+  <si>
+    <t>Kue Cokelat Chip "Indonesia".</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -2426,13 +2426,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>287</v>
+      </c>
+      <c r="C84" t="s">
         <v>238</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>239</v>
-      </c>
-      <c r="D84" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2440,13 +2440,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" t="s">
         <v>241</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>242</v>
-      </c>
-      <c r="D85" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2454,13 +2454,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C86" t="s">
         <v>244</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>245</v>
-      </c>
-      <c r="D86" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2468,13 +2468,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" t="s">
         <v>247</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>248</v>
-      </c>
-      <c r="D87" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2482,13 +2482,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>249</v>
+      </c>
+      <c r="C88" t="s">
         <v>250</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>251</v>
-      </c>
-      <c r="D88" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2496,13 +2496,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
+        <v>252</v>
+      </c>
+      <c r="C89" t="s">
         <v>253</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>254</v>
-      </c>
-      <c r="D89" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2510,13 +2510,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>255</v>
+      </c>
+      <c r="C90" t="s">
         <v>256</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>257</v>
-      </c>
-      <c r="D90" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,13 +2524,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
+        <v>258</v>
+      </c>
+      <c r="C91" t="s">
         <v>259</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>260</v>
-      </c>
-      <c r="D91" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,13 +2538,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>288</v>
+      </c>
+      <c r="C92" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" t="s">
         <v>262</v>
-      </c>
-      <c r="C92" t="s">
-        <v>263</v>
-      </c>
-      <c r="D92" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2552,13 +2552,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" t="s">
         <v>265</v>
-      </c>
-      <c r="C93" t="s">
-        <v>266</v>
-      </c>
-      <c r="D93" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2566,13 +2566,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" t="s">
         <v>268</v>
-      </c>
-      <c r="C94" t="s">
-        <v>269</v>
-      </c>
-      <c r="D94" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2580,13 +2580,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
         <v>271</v>
-      </c>
-      <c r="C95" t="s">
-        <v>272</v>
-      </c>
-      <c r="D95" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2594,13 +2594,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>272</v>
+      </c>
+      <c r="C96" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" t="s">
         <v>274</v>
-      </c>
-      <c r="C96" t="s">
-        <v>275</v>
-      </c>
-      <c r="D96" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C97" t="s">
         <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,13 +2622,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>277</v>
+      </c>
+      <c r="C98" t="s">
+        <v>278</v>
+      </c>
+      <c r="D98" t="s">
         <v>279</v>
-      </c>
-      <c r="C98" t="s">
-        <v>280</v>
-      </c>
-      <c r="D98" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,10 +2636,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C99" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D99" t="s">
         <v>156</v>
@@ -2650,10 +2650,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D100" t="s">
         <v>156</v>
@@ -2664,10 +2664,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C101" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D101" t="s">
         <v>156</v>

--- a/data/recommendartion_data/finalIndonesia_data2.xlsx
+++ b/data/recommendartion_data/finalIndonesia_data2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODING\Project Capstone Bisa AI\data\recommendartion_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A932A0EF-4471-4962-BD5A-A7037297EF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E1BB11-B6D8-45C4-81B6-3E00F43627F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -844,9 +844,6 @@
     <t>https://tse3.mm.bing.net/th/id/OIP.gKA50I6rJgN3YdGZ9ctygwHaHa?pid=ImgDet</t>
   </si>
   <si>
-    <t>-, 2428.7856, 600.0, -</t>
-  </si>
-  <si>
     <t>Daging Sapi Pedas dalam Kelapa (Rendang Daging Sapi)</t>
   </si>
   <si>
@@ -887,6 +884,9 @@
   </si>
   <si>
     <t>Kue Cokelat Chip "Indonesia".</t>
+  </si>
+  <si>
+    <t>1100.0, 2428.7856, 600.0, 600.0</t>
   </si>
 </sst>
 </file>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,7 +1614,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C26" t="s">
         <v>74</v>
@@ -2426,7 +2426,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C84" t="s">
         <v>238</v>
@@ -2538,7 +2538,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C92" t="s">
         <v>261</v>
@@ -2600,7 +2600,7 @@
         <v>273</v>
       </c>
       <c r="D96" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2608,13 +2608,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C97" t="s">
         <v>158</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2622,13 +2622,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>276</v>
+      </c>
+      <c r="C98" t="s">
         <v>277</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>278</v>
-      </c>
-      <c r="D98" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2636,10 +2636,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
+        <v>279</v>
+      </c>
+      <c r="C99" t="s">
         <v>280</v>
-      </c>
-      <c r="C99" t="s">
-        <v>281</v>
       </c>
       <c r="D99" t="s">
         <v>156</v>
@@ -2650,10 +2650,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>281</v>
+      </c>
+      <c r="C100" t="s">
         <v>282</v>
-      </c>
-      <c r="C100" t="s">
-        <v>283</v>
       </c>
       <c r="D100" t="s">
         <v>156</v>
@@ -2664,10 +2664,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
+        <v>283</v>
+      </c>
+      <c r="C101" t="s">
         <v>284</v>
-      </c>
-      <c r="C101" t="s">
-        <v>285</v>
       </c>
       <c r="D101" t="s">
         <v>156</v>
